--- a/data/trans_dic/P55$pareja-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P55$pareja-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,27 +725,27 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>16,91; 81,36</t>
+          <t>17,53; 86,02</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 82,48</t>
+          <t>0,0; 78,98</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>20,82; 89,99</t>
+          <t>13,87; 90,5</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>19,73; 64,22</t>
+          <t>18,37; 62,42</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>6,43; 53,59</t>
+          <t>6,33; 52,75</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,32 +755,32 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 70,81</t>
+          <t>0,0; 64,22</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,98; 31,88</t>
+          <t>3,52; 33,62</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>15,74; 56,38</t>
+          <t>15,95; 55,93</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 66,75</t>
+          <t>0,0; 68,23</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>17,69; 68,78</t>
+          <t>17,31; 72,18</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>14,31; 39,64</t>
+          <t>15,11; 41,23</t>
         </is>
       </c>
     </row>
@@ -864,22 +865,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>21,87; 88,2</t>
+          <t>21,4; 88,73</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>24,16; 90,94</t>
+          <t>24,31; 90,73</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>15,34; 73,72</t>
+          <t>15,33; 73,78</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>14,16; 51,99</t>
+          <t>13,57; 49,6</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -889,7 +890,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 62,78</t>
+          <t>0,0; 61,73</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -899,27 +900,27 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>5,43; 35,72</t>
+          <t>5,72; 34,83</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>14,78; 62,34</t>
+          <t>14,33; 60,77</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>17,58; 70,37</t>
+          <t>18,25; 69,34</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>9,51; 50,73</t>
+          <t>9,21; 47,26</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>12,68; 36,56</t>
+          <t>13,62; 38,75</t>
         </is>
       </c>
     </row>
@@ -1004,22 +1005,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>25,77; 69,71</t>
+          <t>25,33; 68,46</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>18,19; 62,11</t>
+          <t>19,02; 63,39</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>11,13; 54,69</t>
+          <t>10,72; 52,66</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>23,6; 58,15</t>
+          <t>24,49; 56,98</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1029,37 +1030,37 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>6,34; 49,85</t>
+          <t>5,25; 44,62</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 32,0</t>
+          <t>0,0; 26,87</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>8,48; 33,71</t>
+          <t>8,46; 33,38</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>16,14; 50,47</t>
+          <t>16,14; 51,21</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>16,49; 48,08</t>
+          <t>17,84; 49,42</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>7,87; 35,16</t>
+          <t>7,66; 34,58</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>19,86; 40,18</t>
+          <t>20,88; 41,67</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>37,82; 60,38</t>
+          <t>36,47; 60,32</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>27,51; 52,83</t>
+          <t>26,98; 54,25</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>31,53; 60,71</t>
+          <t>31,93; 60,39</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>25,33; 42,05</t>
+          <t>24,14; 42,25</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,49; 27,08</t>
+          <t>3,56; 27,3</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,79; 39,56</t>
+          <t>0,31; 39,65</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>14,0; 52,03</t>
+          <t>12,75; 51,54</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>11,7; 29,1</t>
+          <t>11,86; 28,41</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>30,6; 48,93</t>
+          <t>29,26; 48,91</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>24,28; 46,62</t>
+          <t>23,63; 45,15</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>27,51; 50,32</t>
+          <t>27,34; 50,79</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>21,04; 34,76</t>
+          <t>21,43; 34,52</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>29,08; 76,45</t>
+          <t>28,96; 75,88</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>20,31; 52,25</t>
+          <t>20,46; 52,57</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>31,63; 58,91</t>
+          <t>31,58; 58,73</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>29,71; 57,71</t>
+          <t>29,64; 57,31</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>5,98; 31,83</t>
+          <t>5,59; 31,31</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>8,46; 24,46</t>
+          <t>8,41; 24,46</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>7,91; 31,21</t>
+          <t>7,22; 28,49</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>7,1; 16,41</t>
+          <t>7,75; 16,27</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>17,05; 41,93</t>
+          <t>15,87; 40,18</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>13,84; 28,84</t>
+          <t>14,08; 28,78</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>21,07; 39,93</t>
+          <t>21,59; 40,84</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>14,42; 24,49</t>
+          <t>14,24; 24,76</t>
         </is>
       </c>
     </row>
@@ -1444,42 +1445,42 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>5,76; 15,19</t>
+          <t>5,39; 15,31</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>9,14; 21,95</t>
+          <t>9,7; 22,48</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>10,78; 25,69</t>
+          <t>10,6; 24,38</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>6,46; 13,54</t>
+          <t>6,42; 13,27</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>5,43; 14,91</t>
+          <t>5,16; 15,03</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>9,14; 21,95</t>
+          <t>9,7; 22,48</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>10,78; 25,69</t>
+          <t>10,6; 24,38</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>6,25; 13,36</t>
+          <t>6,2; 13,36</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>39,28; 58,46</t>
+          <t>40,63; 56,61</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>30,9; 49,03</t>
+          <t>31,16; 49,13</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>36,68; 53,52</t>
+          <t>35,42; 52,5</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>28,96; 41,09</t>
+          <t>28,99; 41,53</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>7,31; 15,35</t>
+          <t>7,28; 15,62</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>11,24; 20,18</t>
+          <t>10,98; 20,3</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>12,54; 22,92</t>
+          <t>13,03; 23,17</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>9,88; 14,77</t>
+          <t>9,88; 15,2</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>19,94; 28,91</t>
+          <t>20,12; 28,97</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>19,97; 28,65</t>
+          <t>19,96; 29,02</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>21,62; 30,79</t>
+          <t>21,68; 31,04</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>17,18; 22,42</t>
+          <t>17,02; 22,69</t>
         </is>
       </c>
     </row>
@@ -1646,4 +1647,1630 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población a la que, al menos, le ayuda su pareja cuando tiene dificultades en la actividades instrumentales</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>5214</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>3177</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>4198</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>4621</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>3027</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>2140</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>1957</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>8241</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>3177</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>6338</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>6578</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>1778; 8726</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 6634</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>975; 6360</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>2204; 7488</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>847; 7052</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1448</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0; 5167</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>488; 4659</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>3751; 13149</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>0; 7957</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>2610; 10880</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>3907; 10660</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>5501</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>5383</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>4365</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>5288</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>2202</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>5501</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>7399</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>4365</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>7490</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>2311; 9581</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>2312; 8628</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>1648; 7935</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>2370; 8659</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1636</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0; 5437</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1773</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>784; 4778</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>2314; 9814</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>3342; 12701</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>1608; 8254</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>4247; 12079</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>8273</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>9406</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>4954</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>8601</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>4148</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>991</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>3894</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>8273</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>13554</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>5945</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>12496</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>4564; 12336</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>4648; 15489</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1767; 8680</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>5189; 12072</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1726</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>997; 8479</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0; 4380</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>1792; 7070</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>4250; 13487</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>7748; 21466</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>2512; 11337</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>8846; 17652</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>34109</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>27091</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>18639</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>23454</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>2613</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>3317</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>9549</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>7287</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>36722</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>30408</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>28188</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>30741</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>25761; 42604</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>18286; 36775</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>12730; 24073</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>17388; 30432</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>833; 6395</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>65; 8262</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>4187; 16918</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>4601; 11020</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>27518; 45997</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>20944; 40019</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>19872; 36918</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>23745; 38253</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>8487</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>12586</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>21390</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>12725</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>5586</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>12475</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>8519</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>10633</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>14073</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>25060</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>29909</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>23358</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>4656; 12201</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>7374; 18943</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>14947; 27796</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>8912; 17229</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>2035; 11400</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>7031; 20442</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>3830; 15108</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>7226; 15167</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>8330; 21090</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>16841; 34421</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>21664; 40980</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>17556; 30523</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>13698</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>21267</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>24957</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>13501</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>13698</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>21267</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>24957</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>13501</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 705</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>0; 778</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>7768; 22049</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>13885; 32175</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>15612; 35897</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>9047; 18704</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>7479; 21781</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>13885; 32175</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>15612; 35897</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>8875; 19126</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>171</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>61584</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>57644</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>53547</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>54689</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>24923</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>43221</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>46155</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>39474</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>86507</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>100865</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>99702</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>94163</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>51428; 71659</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>45551; 71809</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>43026; 63764</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>44903; 64331</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>16804; 36065</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>30598; 56534</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>34412; 61205</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>31782; 48907</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>71914; 103582</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>84796; 123267</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>83621; 119698</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>81118; 108133</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P55$pareja-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P55$pareja-Clase-trans_dic.xlsx
@@ -1347,7 +1347,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2837,7 +2837,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
